--- a/引脚分配.xlsx
+++ b/引脚分配.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzh\ESP32EvalBoard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBABC85-17F8-48C7-8CB6-8727E40BB26E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="70">
   <si>
     <t>GPIO</t>
   </si>
@@ -24,7 +30,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>EMAC</t>
@@ -34,7 +39,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>(LAN8720)</t>
@@ -82,7 +86,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>O</t>
@@ -92,7 +95,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>V_PCLK</t>
@@ -104,7 +106,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>O</t>
@@ -114,7 +115,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>V_VSYNC</t>
@@ -126,7 +126,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>O</t>
@@ -136,7 +135,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>V_HREF</t>
@@ -151,7 +149,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>I</t>
@@ -161,7 +158,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>2C_SDA</t>
@@ -188,7 +184,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>SD</t>
@@ -198,7 +193,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>_</t>
@@ -208,7 +202,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>SCK</t>
@@ -229,7 +222,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>M</t>
@@ -239,7 +231,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>DIO</t>
@@ -257,7 +248,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>O</t>
@@ -267,7 +257,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>V_D4</t>
@@ -282,7 +271,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>D</t>
@@ -292,7 +280,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>3</t>
@@ -304,7 +291,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>O</t>
@@ -314,7 +300,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>V_D5</t>
@@ -326,7 +311,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>C</t>
@@ -336,7 +320,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>S</t>
@@ -348,7 +331,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>O</t>
@@ -358,7 +340,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>V_D0</t>
@@ -382,7 +363,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>O</t>
@@ -392,7 +372,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>V_D1</t>
@@ -407,7 +386,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>O</t>
@@ -417,7 +395,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>V_D2</t>
@@ -429,7 +406,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>O</t>
@@ -439,7 +415,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>V_D3</t>
@@ -454,7 +429,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>O</t>
@@ -464,7 +438,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>V_D6</t>
@@ -479,7 +452,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>O</t>
@@ -489,7 +461,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>V_D7</t>
@@ -501,7 +472,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>D</t>
@@ -511,7 +481,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -523,7 +492,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>SD</t>
@@ -533,7 +501,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>_</t>
@@ -543,7 +510,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>MISO</t>
@@ -561,7 +527,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>D</t>
@@ -571,7 +536,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
@@ -583,7 +547,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>SD</t>
@@ -593,7 +556,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>_</t>
@@ -603,7 +565,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>MOSI</t>
@@ -615,7 +576,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>L</t>
@@ -625,7 +585,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>CD_MOSI</t>
@@ -677,14 +636,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,155 +649,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,192 +684,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1079,255 +712,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1355,62 +746,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1668,19 +1021,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
@@ -1694,7 +1047,7 @@
     <col min="12" max="12" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +1085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>36</v>
       </c>
@@ -1752,7 +1105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>39</v>
       </c>
@@ -1772,7 +1125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>34</v>
       </c>
@@ -1792,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>35</v>
       </c>
@@ -1812,7 +1165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>32</v>
       </c>
@@ -1836,7 +1189,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>33</v>
       </c>
@@ -1860,11 +1213,11 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="4"/>
@@ -1878,11 +1231,11 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="4"/>
@@ -1896,11 +1249,11 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="4"/>
@@ -1914,7 +1267,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>14</v>
       </c>
@@ -1934,15 +1287,13 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="5"/>
@@ -1958,11 +1309,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="5"/>
@@ -1974,16 +1325,14 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>9</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
@@ -2000,12 +1349,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="4"/>
@@ -2022,12 +1371,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>11</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="4"/>
@@ -2042,7 +1391,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>23</v>
       </c>
@@ -2062,11 +1411,11 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>22</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="4"/>
@@ -2080,11 +1429,11 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>21</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="4"/>
@@ -2098,11 +1447,11 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="5"/>
@@ -2116,7 +1465,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -2136,7 +1485,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>5</v>
       </c>
@@ -2156,7 +1505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>4</v>
       </c>
@@ -2174,7 +1523,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>0</v>
       </c>
@@ -2194,7 +1543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>2</v>
       </c>
@@ -2216,7 +1565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>15</v>
       </c>
@@ -2236,12 +1585,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>8</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -2262,12 +1611,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>7</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2288,12 +1637,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>6</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D29" s="4"/>
@@ -2310,7 +1659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -2328,7 +1677,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>61</v>
@@ -2356,7 +1705,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>66</v>
       </c>
@@ -2375,7 +1724,6 @@
       <c r="H32" t="s">
         <v>12</v>
       </c>
-      <c r="I32"/>
       <c r="J32" t="s">
         <v>68</v>
       </c>
@@ -2383,15 +1731,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="10:10">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J34" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:L31">
     <sortCondition ref="A2:A31" customList="36,39,34,35,32,33,25,26,27,14,12,13,9,10,11,23,22,21,19,18,5,4,0,2,15,8,7,6"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>